--- a/artfynd/A 26190-2024 artfynd.xlsx
+++ b/artfynd/A 26190-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130637697</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130637698</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>130637683</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>130637681</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>130637699</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>130637680</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>130637682</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
